--- a/finalsummary.xlsx
+++ b/finalsummary.xlsx
@@ -111,7 +111,7 @@
     <t xml:space="preserve">A16633318</t>
   </si>
   <si>
-    <t xml:space="preserve">wuchengtao2002@gmail.com</t>
+    <t xml:space="preserve">chw064@ucsd.edu</t>
   </si>
 </sst>
 </file>
@@ -178,10 +178,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,51 +243,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,24 +295,24 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -566,31 +568,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="2" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="2" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="13.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="13.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="2" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="2" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="13.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="13.76"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,19 +728,19 @@
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="12" t="n">
         <v>22999</v>
       </c>
       <c r="H4" s="12" t="n">
@@ -770,6 +772,9 @@
       <c r="S4" s="12"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
